--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vim-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vim-Cd44.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>468.2935736666666</v>
+        <v>97.15857066666666</v>
       </c>
       <c r="H2">
-        <v>1404.880721</v>
+        <v>291.475712</v>
       </c>
       <c r="I2">
-        <v>0.2378793178672371</v>
+        <v>0.09537345443416363</v>
       </c>
       <c r="J2">
-        <v>0.2378793178672371</v>
+        <v>0.09537345443416365</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>261.380203</v>
+        <v>7.487621999999999</v>
       </c>
       <c r="N2">
-        <v>784.140609</v>
+        <v>22.462866</v>
       </c>
       <c r="O2">
-        <v>0.6968677182772199</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="P2">
-        <v>0.69686771827722</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="Q2">
-        <v>122402.6693485888</v>
+        <v>727.4866512122879</v>
       </c>
       <c r="R2">
-        <v>1101624.024137299</v>
+        <v>6547.379860910592</v>
       </c>
       <c r="S2">
-        <v>0.1657704174674831</v>
+        <v>0.01320345505455459</v>
       </c>
       <c r="T2">
-        <v>0.1657704174674831</v>
+        <v>0.0132034550545546</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>468.2935736666666</v>
+        <v>97.15857066666666</v>
       </c>
       <c r="H3">
-        <v>1404.880721</v>
+        <v>291.475712</v>
       </c>
       <c r="I3">
-        <v>0.2378793178672371</v>
+        <v>0.09537345443416363</v>
       </c>
       <c r="J3">
-        <v>0.2378793178672371</v>
+        <v>0.09537345443416365</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>95.998284</v>
       </c>
       <c r="O3">
-        <v>0.08531391482826334</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="P3">
-        <v>0.08531391482826335</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="Q3">
-        <v>14985.12649340919</v>
+        <v>3109.018686630912</v>
       </c>
       <c r="R3">
-        <v>134866.1384406828</v>
+        <v>27981.16817967821</v>
       </c>
       <c r="S3">
-        <v>0.02029441586393085</v>
+        <v>0.05642686147477208</v>
       </c>
       <c r="T3">
-        <v>0.02029441586393085</v>
+        <v>0.05642686147477208</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>468.2935736666666</v>
+        <v>97.15857066666666</v>
       </c>
       <c r="H4">
-        <v>1404.880721</v>
+        <v>291.475712</v>
       </c>
       <c r="I4">
-        <v>0.2378793178672371</v>
+        <v>0.09537345443416363</v>
       </c>
       <c r="J4">
-        <v>0.2378793178672371</v>
+        <v>0.09537345443416365</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>81.69901900000001</v>
+        <v>14.59882166666667</v>
       </c>
       <c r="N4">
-        <v>245.097057</v>
+        <v>43.796465</v>
       </c>
       <c r="O4">
-        <v>0.2178183668945166</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="P4">
-        <v>0.2178183668945167</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="Q4">
-        <v>38259.1255725709</v>
+        <v>1418.400646550898</v>
       </c>
       <c r="R4">
-        <v>344332.1301531381</v>
+        <v>12765.60581895808</v>
       </c>
       <c r="S4">
-        <v>0.05181448453582321</v>
+        <v>0.02574313790483696</v>
       </c>
       <c r="T4">
-        <v>0.05181448453582321</v>
+        <v>0.02574313790483697</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>715.8492226666666</v>
+        <v>715.8492226666667</v>
       </c>
       <c r="H5">
         <v>2147.547668</v>
       </c>
       <c r="I5">
-        <v>0.3636302831371944</v>
+        <v>0.7026967641790764</v>
       </c>
       <c r="J5">
-        <v>0.3636302831371944</v>
+        <v>0.7026967641790766</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>261.380203</v>
+        <v>7.487621999999999</v>
       </c>
       <c r="N5">
-        <v>784.140609</v>
+        <v>22.462866</v>
       </c>
       <c r="O5">
-        <v>0.6968677182772199</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="P5">
-        <v>0.69686771827722</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="Q5">
-        <v>187108.8151380055</v>
+        <v>5360.008388321832</v>
       </c>
       <c r="R5">
-        <v>1683979.33624205</v>
+        <v>48240.07549489649</v>
       </c>
       <c r="S5">
-        <v>0.2534022057063161</v>
+        <v>0.09728100127928167</v>
       </c>
       <c r="T5">
-        <v>0.2534022057063161</v>
+        <v>0.09728100127928169</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>715.8492226666666</v>
+        <v>715.8492226666667</v>
       </c>
       <c r="H6">
         <v>2147.547668</v>
       </c>
       <c r="I6">
-        <v>0.3636302831371944</v>
+        <v>0.7026967641790764</v>
       </c>
       <c r="J6">
-        <v>0.3636302831371944</v>
+        <v>0.7026967641790766</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>95.998284</v>
       </c>
       <c r="O6">
-        <v>0.08531391482826334</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="P6">
-        <v>0.08531391482826335</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="Q6">
         <v>22906.76565957797</v>
@@ -818,10 +818,10 @@
         <v>206160.8909362017</v>
       </c>
       <c r="S6">
-        <v>0.03102272300454388</v>
+        <v>0.4157443306037995</v>
       </c>
       <c r="T6">
-        <v>0.03102272300454389</v>
+        <v>0.4157443306037995</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>715.8492226666666</v>
+        <v>715.8492226666667</v>
       </c>
       <c r="H7">
         <v>2147.547668</v>
       </c>
       <c r="I7">
-        <v>0.3636302831371944</v>
+        <v>0.7026967641790764</v>
       </c>
       <c r="J7">
-        <v>0.3636302831371944</v>
+        <v>0.7026967641790766</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>81.69901900000001</v>
+        <v>14.59882166666667</v>
       </c>
       <c r="N7">
-        <v>245.097057</v>
+        <v>43.796465</v>
       </c>
       <c r="O7">
-        <v>0.2178183668945166</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="P7">
-        <v>0.2178183668945167</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="Q7">
-        <v>58484.17924377923</v>
+        <v>10450.55514193262</v>
       </c>
       <c r="R7">
-        <v>526357.613194013</v>
+        <v>94054.99627739363</v>
       </c>
       <c r="S7">
-        <v>0.07920535442633438</v>
+        <v>0.1896714322959953</v>
       </c>
       <c r="T7">
-        <v>0.07920535442633438</v>
+        <v>0.1896714322959953</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>784.4754839999999</v>
+        <v>205.709325</v>
       </c>
       <c r="H8">
-        <v>2353.426452</v>
+        <v>617.127975</v>
       </c>
       <c r="I8">
-        <v>0.3984903989955685</v>
+        <v>0.2019297813867599</v>
       </c>
       <c r="J8">
-        <v>0.3984903989955685</v>
+        <v>0.2019297813867599</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>261.380203</v>
+        <v>7.487621999999999</v>
       </c>
       <c r="N8">
-        <v>784.140609</v>
+        <v>22.462866</v>
       </c>
       <c r="O8">
-        <v>0.6968677182772199</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="P8">
-        <v>0.69686771827722</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="Q8">
-        <v>205046.3612564432</v>
+        <v>1540.27366747515</v>
       </c>
       <c r="R8">
-        <v>1845417.251307989</v>
+        <v>13862.46300727635</v>
       </c>
       <c r="S8">
-        <v>0.2776950951034208</v>
+        <v>0.02795506158955979</v>
       </c>
       <c r="T8">
-        <v>0.2776950951034209</v>
+        <v>0.02795506158955979</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>784.4754839999999</v>
+        <v>205.709325</v>
       </c>
       <c r="H9">
-        <v>2353.426452</v>
+        <v>617.127975</v>
       </c>
       <c r="I9">
-        <v>0.3984903989955685</v>
+        <v>0.2019297813867599</v>
       </c>
       <c r="J9">
-        <v>0.3984903989955685</v>
+        <v>0.2019297813867599</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>95.998284</v>
       </c>
       <c r="O9">
-        <v>0.08531391482826334</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="P9">
-        <v>0.08531391482826335</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="Q9">
-        <v>25102.76676802315</v>
+        <v>6582.5807342661</v>
       </c>
       <c r="R9">
-        <v>225924.9009122083</v>
+        <v>59243.2266083949</v>
       </c>
       <c r="S9">
-        <v>0.03399677595978861</v>
+        <v>0.1194699706489836</v>
       </c>
       <c r="T9">
-        <v>0.03399677595978862</v>
+        <v>0.1194699706489836</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>784.4754839999999</v>
+        <v>205.709325</v>
       </c>
       <c r="H10">
-        <v>2353.426452</v>
+        <v>617.127975</v>
       </c>
       <c r="I10">
-        <v>0.3984903989955685</v>
+        <v>0.2019297813867599</v>
       </c>
       <c r="J10">
-        <v>0.3984903989955685</v>
+        <v>0.2019297813867599</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>81.69901900000001</v>
+        <v>14.59882166666667</v>
       </c>
       <c r="N10">
-        <v>245.097057</v>
+        <v>43.796465</v>
       </c>
       <c r="O10">
-        <v>0.2178183668945166</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="P10">
-        <v>0.2178183668945167</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="Q10">
-        <v>64090.8774723502</v>
+        <v>3003.113750845375</v>
       </c>
       <c r="R10">
-        <v>576817.8972511517</v>
+        <v>27028.02375760837</v>
       </c>
       <c r="S10">
-        <v>0.08679852793235908</v>
+        <v>0.05450474914821644</v>
       </c>
       <c r="T10">
-        <v>0.08679852793235908</v>
+        <v>0.05450474914821644</v>
       </c>
     </row>
   </sheetData>
